--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218705.3084499346</v>
+        <v>225320.733612543</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6058391.215842249</v>
+        <v>10223238.23668763</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22564531.09171689</v>
+        <v>21736458.52081158</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3864543.259882622</v>
+        <v>3965222.103577581</v>
       </c>
     </row>
     <row r="11">
@@ -3980,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>161.0432237466919</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>161.0432237466919</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>176.5441183026512</v>
       </c>
     </row>
   </sheetData>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>546.6654995575742</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>361.9812091665018</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>177.2969187754294</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>20.50786881661497</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>78.79182830082482</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>187.0774516727204</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>338.4437735878632</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>496.7578240095727</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>633.2474128485935</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>716.099643286975</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>65.45583405098594</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>178.965957375333</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>330.2998638361735</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>499.6875572857932</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>632.9799039014431</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>721.1090237341626</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>546.6654995575742</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>361.9812091665018</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>199.3112861900453</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.6538169416015</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.62699579897293</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>110.9161925022161</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>122.6528755014873</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>258.6769401156478</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>439.6860131279378</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>608.8474927092187</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>730.371880645343</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>731.3497899486466</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>546.6654995575742</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>546.6654995575742</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>361.9812091665018</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>361.9812091665018</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>183.6538169416015</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K11" t="n">
-        <v>214.587604768856</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8722545957376</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5875773965909</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6777370066762</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O11" t="n">
-        <v>224.3457561361446</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P11" t="n">
-        <v>225.4521708613878</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.7480476275882</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L12" t="n">
-        <v>135.0905202853774</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M12" t="n">
-        <v>138.5806830739679</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>139.0313383333333</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P12" t="n">
-        <v>130.625047228972</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.482229733871</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8848,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0135169984386</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5125593742073</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M13" t="n">
-        <v>135.4526393489149</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N13" t="n">
-        <v>124.4934058536024</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9951249905467</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P13" t="n">
-        <v>134.2848039479189</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K14" t="n">
-        <v>214.587604768856</v>
+        <v>97.52919776222208</v>
       </c>
       <c r="L14" t="n">
-        <v>229.8722545957376</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5875773965909</v>
+        <v>63.00089454090769</v>
       </c>
       <c r="N14" t="n">
-        <v>223.6777370066762</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O14" t="n">
-        <v>224.3457561361446</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P14" t="n">
-        <v>225.4521708613878</v>
+        <v>93.12002459555271</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.7480476275882</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>54.8878629330886</v>
       </c>
       <c r="L15" t="n">
-        <v>135.0905202853774</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N15" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>139.0313383333333</v>
+        <v>21.8831316350759</v>
       </c>
       <c r="P15" t="n">
-        <v>130.625047228972</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9085,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0135169984386</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5125593742073</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M16" t="n">
-        <v>135.4526393489149</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N16" t="n">
-        <v>124.4934058536024</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O16" t="n">
-        <v>134.9951249905467</v>
+        <v>76.64920643376992</v>
       </c>
       <c r="P16" t="n">
-        <v>134.2848039479189</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K17" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L17" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N17" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P17" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L18" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M18" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9322,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M19" t="n">
-        <v>135.4526393489149</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N19" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O19" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P19" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K20" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L20" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N20" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O20" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P20" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L21" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M21" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9559,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M22" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N22" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O22" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P22" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K23" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L23" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O23" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P23" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9796,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M25" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N25" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O25" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P25" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K26" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L26" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O26" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P26" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M28" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N28" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O28" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P28" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K29" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L29" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O29" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P29" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10270,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M31" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N31" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O31" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P31" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K32" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L32" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O32" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P32" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M34" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N34" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O34" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P34" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K35" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L35" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O35" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P35" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,28 +10664,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K36" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10744,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M37" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N37" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O37" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P37" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K38" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L38" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O38" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P38" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10981,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M40" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N40" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O40" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P40" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K41" t="n">
-        <v>214.587604768856</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8722545957376</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O41" t="n">
-        <v>224.3457561361446</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P41" t="n">
-        <v>225.4521708613878</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.7480476275882</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11218,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L43" t="n">
-        <v>131.5125593742073</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M43" t="n">
-        <v>135.4526393489149</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N43" t="n">
-        <v>124.4934058536024</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O43" t="n">
-        <v>134.9951249905467</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P43" t="n">
-        <v>134.2848039479189</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>214.587604768856</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8722545957376</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>225.4521708613878</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.7480476275882</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>14.99474050684199</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.482229733871</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11458,19 +11460,19 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L46" t="n">
-        <v>131.5125593742073</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>135.4526393489149</v>
+        <v>121.6894465222124</v>
       </c>
       <c r="N46" t="n">
-        <v>124.4934058536024</v>
+        <v>159.7638918243337</v>
       </c>
       <c r="O46" t="n">
-        <v>134.9951249905467</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P46" t="n">
-        <v>134.2848039479189</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23270,16 +23272,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>84.04458539159593</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9651171964204</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0232102050423</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4625155221328</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>69.55120651446384</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>64.12462538166871</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8895889301081</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6340720089168</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>59.65462775411975</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>45.19520876274868</v>
       </c>
       <c r="R13" t="n">
-        <v>173.3911476697823</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S13" t="n">
-        <v>222.3574069614225</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3324659915077</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,16 +23509,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H14" t="n">
-        <v>338.1439033881534</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>84.04458539159593</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>69.55120651446384</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>64.12462538166871</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9616139056444</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,19 +23667,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8895889301081</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6340720089168</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>59.65462775411976</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>45.19520876274868</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S16" t="n">
-        <v>222.3574069614225</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3324659915077</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,16 +23746,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I17" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,19 +23904,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I19" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J19" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K19" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746442</v>
       </c>
       <c r="R19" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S19" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,16 +23983,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H20" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I21" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,19 +24141,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I22" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J22" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K22" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R22" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S22" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,16 +24220,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H23" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S23" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I24" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,19 +24378,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I25" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J25" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K25" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,16 +24457,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I26" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,19 +24615,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I28" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J28" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K28" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R28" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S28" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,16 +24694,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H29" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I29" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I30" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,19 +24852,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I31" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J31" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K31" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,16 +24931,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I32" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I33" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,19 +25089,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I34" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J34" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K34" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R34" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S34" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,16 +25168,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H35" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S36" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,19 +25326,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I37" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J37" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K37" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R37" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S37" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,16 +25405,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H38" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I38" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,19 +25563,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I40" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J40" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K40" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R40" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S40" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,16 +25642,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H41" t="n">
-        <v>338.1439033881534</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I41" t="n">
-        <v>205.224307868124</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.8508227008771</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S41" t="n">
-        <v>205.8649517235392</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9651171964204</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0232102050423</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4625155221328</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I42" t="n">
-        <v>86.50354346547167</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S42" t="n">
-        <v>168.9616139056444</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,19 +25800,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8895889301081</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6340720089168</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I43" t="n">
-        <v>153.7585467974036</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J43" t="n">
-        <v>88.83884492777894</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K43" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R43" t="n">
-        <v>173.3911476697823</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S43" t="n">
-        <v>222.3574069614225</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0522703910642</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25868,25 +25870,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>173.7672852674367</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>200.2805882681258</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>224.4564159933792</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8547654038309</v>
+        <v>251.6617599791889</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>316.1274517788472</v>
       </c>
       <c r="I44" t="n">
-        <v>205.224307868124</v>
+        <v>122.3448497289536</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.8508227008771</v>
+        <v>6.80959937334552</v>
       </c>
       <c r="S44" t="n">
-        <v>205.8649517235392</v>
+        <v>156.8768017372518</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9651171964204</v>
+        <v>213.5544479011939</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4777635765444</v>
+        <v>251.3057810423084</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>134.8729756025429</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>99.35367080851995</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>46.90116789696089</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>23.27953663397801</v>
       </c>
       <c r="S45" t="n">
-        <v>168.9616139056444</v>
+        <v>147.5965106530784</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>193.7462792780188</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>41.74405625092776</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>49.07128355249347</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>88.94612300330812</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>21.62418212131661</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -26023,7 +26025,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26035,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>166.9252708782571</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>153.0604078751873</v>
       </c>
       <c r="I46" t="n">
-        <v>153.7585467974036</v>
+        <v>124.7588730199218</v>
       </c>
       <c r="J46" t="n">
-        <v>88.83884492777894</v>
+        <v>20.66155866191558</v>
       </c>
       <c r="K46" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>173.3911476697823</v>
+        <v>130.0319014474652</v>
       </c>
       <c r="S46" t="n">
-        <v>222.3574069614225</v>
+        <v>205.5519732759834</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3324659915077</v>
+        <v>224.2121979517808</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>103.162223737438</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>103.2551294002539</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>42.20455556511698</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>334212.7627164145</v>
+        <v>334857.1780472646</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>334212.7627164145</v>
+        <v>334857.1780472646</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>334212.7627164145</v>
+        <v>334962.8347786043</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>334212.7627164145</v>
+        <v>498354.6317428232</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>74269.50282586986</v>
       </c>
       <c r="C2" t="n">
+        <v>74269.50282586986</v>
+      </c>
+      <c r="D2" t="n">
         <v>74269.50282586984</v>
       </c>
-      <c r="D2" t="n">
-        <v>74269.50282586986</v>
-      </c>
       <c r="E2" t="n">
-        <v>74269.50282586986</v>
+        <v>79851.75002005196</v>
       </c>
       <c r="F2" t="n">
-        <v>74269.50282586986</v>
+        <v>79851.75002005194</v>
       </c>
       <c r="G2" t="n">
-        <v>74269.50282586986</v>
+        <v>80454.54022025643</v>
       </c>
       <c r="H2" t="n">
-        <v>74269.50282586986</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="I2" t="n">
-        <v>74269.50282586984</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="J2" t="n">
-        <v>74269.50282586984</v>
+        <v>80454.54022025643</v>
       </c>
       <c r="K2" t="n">
-        <v>74269.50282586984</v>
+        <v>80454.54022025646</v>
       </c>
       <c r="L2" t="n">
-        <v>74269.50282586984</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="M2" t="n">
-        <v>74269.50282586986</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="N2" t="n">
-        <v>74269.50282586986</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="O2" t="n">
-        <v>74269.50282586984</v>
+        <v>80454.54022025644</v>
       </c>
       <c r="P2" t="n">
-        <v>74269.50282586986</v>
+        <v>123369.8318147749</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>183907.4122962746</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19721.69289359233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>229899.9132180023</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>37134.75141293493</v>
       </c>
       <c r="E4" t="n">
-        <v>37134.75141293493</v>
+        <v>15450.17796705678</v>
       </c>
       <c r="F4" t="n">
-        <v>37134.75141293493</v>
+        <v>15450.17796705678</v>
       </c>
       <c r="G4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="H4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="I4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="J4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="K4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="L4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="M4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="N4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="O4" t="n">
-        <v>37134.75141293493</v>
+        <v>13144.67389757842</v>
       </c>
       <c r="P4" t="n">
-        <v>37134.75141293493</v>
+        <v>5033.852253338283</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4990.249710368006</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4990.249710368006</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5543.227322958715</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>22774.24540132321</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507.151412934931</v>
+        <v>3507.151412934938</v>
       </c>
       <c r="C6" t="n">
-        <v>3507.151412934916</v>
+        <v>3507.151412934938</v>
       </c>
       <c r="D6" t="n">
-        <v>3507.151412934931</v>
+        <v>3507.151412934923</v>
       </c>
       <c r="E6" t="n">
-        <v>37134.75141293493</v>
+        <v>-124496.0899536475</v>
       </c>
       <c r="F6" t="n">
-        <v>37134.75141293493</v>
+        <v>59411.32234262716</v>
       </c>
       <c r="G6" t="n">
-        <v>37134.75141293493</v>
+        <v>42044.94610612697</v>
       </c>
       <c r="H6" t="n">
-        <v>37134.75141293493</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="I6" t="n">
-        <v>37134.75141293491</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="J6" t="n">
-        <v>37134.75141293491</v>
+        <v>61766.6389997193</v>
       </c>
       <c r="K6" t="n">
-        <v>37134.75141293491</v>
+        <v>61766.63899971933</v>
       </c>
       <c r="L6" t="n">
-        <v>37134.75141293491</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="M6" t="n">
-        <v>37134.75141293493</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="N6" t="n">
-        <v>37134.75141293493</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="O6" t="n">
-        <v>37134.75141293491</v>
+        <v>61766.63899971931</v>
       </c>
       <c r="P6" t="n">
-        <v>37134.75141293493</v>
+        <v>-134338.1790578888</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>534.7581923900817</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>228.9105371728443</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>25.36594553168391</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>280.4817096855535</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.9202433655189715</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>35.47768234917018</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>161.5866828556832</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.4923736082585708</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>79.50754006691142</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>29.18421717365918</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>58.34591855677679</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>34.56549111309949</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>7.193795078038399</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2.149781677950076</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>22.01645160930622</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>82.87945813917037</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>182.4600326889154</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>273.4602911165421</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>339.2516721431069</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>377.4828520583515</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>383.5909192508272</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>362.2140276907111</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>309.1412925163186</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>232.1522361747314</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>135.0412233275316</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>48.9881499862874</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.410669295226461</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.171982534236006</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.150234602499421</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>11.10884471361283</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.60237556851077</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>108.671945493158</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>185.7376638606193</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>249.7472105119905</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>291.4432148525945</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>299.1568495333911</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>273.6700722885355</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>219.6443601913149</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>146.8264380313296</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.41544312711321</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>21.36510325256599</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.636252630249857</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.07567332911180405</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.9643180518509669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.573664133729512</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>28.99967377748181</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>68.17728626586336</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>112.0362245695941</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>143.3677947270065</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>151.1612378915111</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>147.5669615164304</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>136.3019733652622</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>116.6298851075023</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>80.74848705090234</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>43.3592462223171</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.80543368543912</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4.120268039726858</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.05259916646459826</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.940275775396259</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>58.87268634768608</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>109.3794175473693</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>152.8952746617606</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>159.913182244151</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>137.8682715545665</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.68912165493077</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>15.40418854714315</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>51.34226086061923</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>114.6566902266132</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>152.8625317786266</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>171.0986802521411</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>134.6387339552022</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>89.01931296234292</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>10.34420829745864</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.26181485176079</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>11.85523535279918</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>137.3980450648085</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>182.8374474871617</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>170.8701813952332</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>122.7519070061862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.9877871750541658</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
